--- a/Excel/StartProcessConfig.xlsx
+++ b/Excel/StartProcessConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Project\ET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6C8E17-C3DA-4EEA-9270-F57F5F5B9F6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53E1519-0E1E-4D52-8BC5-9F8D0668BF1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33150" yWindow="1770" windowWidth="26535" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26535" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
   <dimension ref="C3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -481,10 +481,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5">
-        <v>7501</v>
+        <v>7500</v>
       </c>
     </row>
   </sheetData>
